--- a/Nutrients/no3_calculations/NO3_Calculation.xlsx
+++ b/Nutrients/no3_calculations/NO3_Calculation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brookesienkiewicz/Documents/LabNotebook/Nutrients/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brookesienkiewicz/Documents/LabNotebook/Nutrients/no3_calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355DA216-E9C4-6246-9B15-94184942DFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF721AA9-0976-2D4B-978B-2AECAF144E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{9E13EADE-920C-C646-8C8D-DF2352A3819A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{9E13EADE-920C-C646-8C8D-DF2352A3819A}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="104">
   <si>
     <t>Stnd Curve 1</t>
   </si>
@@ -352,6 +352,15 @@
   <si>
     <t>% error: max dev/mean</t>
   </si>
+  <si>
+    <t>m (slope)</t>
+  </si>
+  <si>
+    <t>b (intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equation to find concentration: </t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +368,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -696,6 +705,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,22 +723,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{322402B8-8812-8043-916C-0B581D6715A3}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -728,306 +737,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1118,36 +827,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5823,13 +5502,13 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="208" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5931,7 +5610,7 @@
         <v>0.8</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5943,14 +5622,19 @@
         <v>-2.7755575615628914E-17</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="C14" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7173,17 +6857,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C14:C43 D15:F15">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17 D20 D28">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F43">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7196,8 +6880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45115C77-D274-EA46-9D36-6DB6E2262E6C}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7265,7 +6949,7 @@
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="44">
         <v>0</v>
       </c>
       <c r="C3" s="33">
@@ -7287,22 +6971,22 @@
         <f>'[2]Plate 2 - Sheet1'!$J$45</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="46">
         <f>(E3+F3+G3)/3</f>
         <v>7.2666666666666671E-2</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="47">
         <f>(ABS(E3-H3)/H3)*100</f>
         <v>8.7155963302752237</v>
       </c>
       <c r="J3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3" s="43">
         <v>0</v>
       </c>
       <c r="L3" s="33">
-        <f>AVERAGE(M3:N3)</f>
+        <f t="shared" ref="L3:L9" si="0">AVERAGE(M3:N3)</f>
         <v>7.6000000000000012E-2</v>
       </c>
       <c r="M3" s="32">
@@ -7313,7 +6997,7 @@
         <f>'[2]Plate 2 - Sheet1'!$C$55</f>
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="O3" s="48">
+      <c r="O3" s="45">
         <f>(ABS(M3-N3)/2)*100</f>
         <v>0.59999999999999987</v>
       </c>
@@ -7322,7 +7006,7 @@
       <c r="A4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="44">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4" s="33">
@@ -7344,22 +7028,22 @@
         <f>'[2]Plate 2 - Sheet1'!$N$45</f>
         <v>7.8E-2</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="46">
         <f>(E4+F4+G4)/3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="47">
         <f>(ABS(E4-H4)/H4)*100</f>
         <v>18.800000000000011</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4" s="43">
         <v>0.02</v>
       </c>
       <c r="L4" s="33">
-        <f>AVERAGE(M4:N4)</f>
+        <f t="shared" si="0"/>
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="M4" s="32">
@@ -7370,8 +7054,8 @@
         <f>'[2]Plate 2 - Sheet1'!$D$55</f>
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="O4" s="48">
-        <f t="shared" ref="O4:O9" si="0">(ABS(M4-N4)/2)*100</f>
+      <c r="O4" s="45">
+        <f t="shared" ref="O4:O9" si="1">(ABS(M4-N4)/2)*100</f>
         <v>0.35000000000000031</v>
       </c>
     </row>
@@ -7379,7 +7063,7 @@
       <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>0.01</v>
       </c>
       <c r="C5" s="33">
@@ -7401,22 +7085,22 @@
         <f>'[2]Plate 2 - Sheet1'!$N$47</f>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="H5" s="49">
-        <f t="shared" ref="H4:H9" si="1">(E5+F5+G5)/3</f>
+      <c r="H5" s="46">
+        <f t="shared" ref="H5:H9" si="2">(E5+F5+G5)/3</f>
         <v>9.0666666666666673E-2</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="47">
         <f>(ABS(F5-H5)/H5)*100</f>
         <v>24.632352941176467</v>
       </c>
       <c r="J5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="43">
         <v>0.05</v>
       </c>
       <c r="L5" s="33">
-        <f>AVERAGE(M5:N5)</f>
+        <f t="shared" si="0"/>
         <v>0.11699999999999999</v>
       </c>
       <c r="M5" s="32">
@@ -7427,8 +7111,8 @@
         <f>'[2]Plate 2 - Sheet1'!$E$55</f>
         <v>0.122</v>
       </c>
-      <c r="O5" s="48">
-        <f t="shared" si="0"/>
+      <c r="O5" s="45">
+        <f t="shared" si="1"/>
         <v>0.49999999999999978</v>
       </c>
     </row>
@@ -7436,7 +7120,7 @@
       <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="44">
         <v>0.02</v>
       </c>
       <c r="C6" s="33">
@@ -7458,22 +7142,22 @@
         <f>'[2]Plate 2 - Sheet1'!$N$49</f>
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H6" s="49">
-        <f t="shared" si="1"/>
+      <c r="H6" s="46">
+        <f t="shared" si="2"/>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="47">
         <f>(ABS(E6-H6)/H6)*100</f>
         <v>2.2222222222222086</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="43">
         <v>0.1</v>
       </c>
       <c r="L6" s="33">
-        <f>AVERAGE(M6:N6)</f>
+        <f t="shared" si="0"/>
         <v>0.16700000000000001</v>
       </c>
       <c r="M6" s="32">
@@ -7484,8 +7168,8 @@
         <f>'[2]Plate 2 - Sheet1'!$F$55</f>
         <v>0.16600000000000001</v>
       </c>
-      <c r="O6" s="48">
-        <f t="shared" si="0"/>
+      <c r="O6" s="45">
+        <f t="shared" si="1"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -7493,7 +7177,7 @@
       <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="44">
         <v>0.03</v>
       </c>
       <c r="C7" s="33">
@@ -7515,22 +7199,22 @@
         <f>'[2]Plate 2 - Sheet1'!$N$51</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H7" s="49">
-        <f t="shared" si="1"/>
+      <c r="H7" s="46">
+        <f t="shared" si="2"/>
         <v>0.11299999999999999</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="47">
         <f>(ABS(E7-H7)/H7)*100</f>
         <v>28.318584070796465</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="43">
         <v>0.2</v>
       </c>
       <c r="L7" s="33">
-        <f>AVERAGE(M7:N7)</f>
+        <f t="shared" si="0"/>
         <v>0.28849999999999998</v>
       </c>
       <c r="M7" s="32">
@@ -7541,8 +7225,8 @@
         <f>'[2]Plate 2 - Sheet1'!$G$55</f>
         <v>0.27200000000000002</v>
       </c>
-      <c r="O7" s="48">
-        <f t="shared" si="0"/>
+      <c r="O7" s="45">
+        <f t="shared" si="1"/>
         <v>1.6499999999999986</v>
       </c>
     </row>
@@ -7550,7 +7234,7 @@
       <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="44">
         <v>0.04</v>
       </c>
       <c r="C8" s="33">
@@ -7572,22 +7256,22 @@
         <f>'[2]Plate 2 - Sheet1'!$N$53</f>
         <v>0.109</v>
       </c>
-      <c r="H8" s="49">
-        <f t="shared" si="1"/>
+      <c r="H8" s="46">
+        <f t="shared" si="2"/>
         <v>0.109</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="47">
         <f>(ABS(E8-H8)/H8)*100</f>
         <v>2.752293577981654</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="43">
         <v>0.5</v>
       </c>
       <c r="L8" s="33">
-        <f>AVERAGE(M8:N8)</f>
+        <f t="shared" si="0"/>
         <v>0.61450000000000005</v>
       </c>
       <c r="M8" s="32">
@@ -7598,8 +7282,8 @@
         <f>'[2]Plate 2 - Sheet1'!$H$55</f>
         <v>0.61499999999999999</v>
       </c>
-      <c r="O8" s="48">
-        <f t="shared" si="0"/>
+      <c r="O8" s="45">
+        <f t="shared" si="1"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7607,7 +7291,7 @@
       <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="44">
         <v>0.05</v>
       </c>
       <c r="C9" s="33">
@@ -7629,22 +7313,22 @@
         <f>'[2]Plate 2 - Sheet1'!$N$55</f>
         <v>0.16900000000000001</v>
       </c>
-      <c r="H9" s="49">
-        <f t="shared" si="1"/>
+      <c r="H9" s="46">
+        <f t="shared" si="2"/>
         <v>0.16200000000000001</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="47">
         <f>(ABS(F9-H9)/H9)*100</f>
         <v>20.987654320987655</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="43">
         <v>1</v>
       </c>
       <c r="L9" s="33">
-        <f>AVERAGE(M9:N9)</f>
+        <f t="shared" si="0"/>
         <v>0.97299999999999998</v>
       </c>
       <c r="M9" s="32">
@@ -7655,8 +7339,8 @@
         <f>'[2]Plate 2 - Sheet1'!$I$55</f>
         <v>0.98</v>
       </c>
-      <c r="O9" s="48">
-        <f t="shared" si="0"/>
+      <c r="O9" s="45">
+        <f t="shared" si="1"/>
         <v>0.70000000000000062</v>
       </c>
     </row>
@@ -7778,11 +7462,11 @@
         <v>198.6088741512711</v>
       </c>
       <c r="E17" t="e">
-        <f t="shared" ref="E17:E43" si="2">B17-$E$12</f>
+        <f t="shared" ref="E17:E43" si="3">B17-$E$12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="30" t="e">
-        <f t="shared" ref="F17:F43" si="3">(E17-$C$12)/$C$11</f>
+        <f t="shared" ref="F17:F43" si="4">(E17-$C$12)/$C$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7797,11 +7481,11 @@
       </c>
       <c r="D18" s="35"/>
       <c r="E18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="30" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7812,15 +7496,15 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30">
-        <f t="shared" ref="C19:C43" si="4">(B19-$C$12)/$C$11</f>
+        <f t="shared" ref="C19:C43" si="5">(B19-$C$12)/$C$11</f>
         <v>-4.9304437075635546E-2</v>
       </c>
       <c r="E19" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="30" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7831,7 +7515,7 @@
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.9304437075635546E-2</v>
       </c>
       <c r="D20" s="35">
@@ -7839,11 +7523,11 @@
         <v>104.93044370756354</v>
       </c>
       <c r="E20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="30" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7854,15 +7538,15 @@
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7872,15 +7556,15 @@
         <v>SPL2</v>
       </c>
       <c r="C22">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7890,15 +7574,15 @@
         <v>SPL3</v>
       </c>
       <c r="C23">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7908,15 +7592,15 @@
         <v>SPL4</v>
       </c>
       <c r="C24">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7926,15 +7610,15 @@
         <v>SPL5</v>
       </c>
       <c r="C25">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7944,15 +7628,15 @@
         <v>SPL6</v>
       </c>
       <c r="C26">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E26" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7962,15 +7646,15 @@
         <v>SPL7</v>
       </c>
       <c r="C27">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E27" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E27" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" t="s">
@@ -7984,7 +7668,7 @@
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.9304437075635546E-2</v>
       </c>
       <c r="D28" s="35">
@@ -7992,11 +7676,11 @@
         <v>104.93044370756354</v>
       </c>
       <c r="E28" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="30" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28">
@@ -8018,15 +7702,15 @@
         <v>SPL8</v>
       </c>
       <c r="C29">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E29" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8036,15 +7720,15 @@
         <v>SPL9</v>
       </c>
       <c r="C30">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8055,15 +7739,15 @@
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8073,15 +7757,15 @@
         <v>STD1</v>
       </c>
       <c r="C32">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E32" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8091,15 +7775,15 @@
         <v>SPL10</v>
       </c>
       <c r="C33">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E33" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8109,15 +7793,15 @@
         <v>SPL11</v>
       </c>
       <c r="C34">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E34" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8127,15 +7811,15 @@
         <v>SPL1</v>
       </c>
       <c r="C35">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E35" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8145,15 +7829,15 @@
         <v>SPL2</v>
       </c>
       <c r="C36">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8164,15 +7848,15 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E37" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8183,15 +7867,15 @@
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E38" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8201,15 +7885,15 @@
         <v>STD1</v>
       </c>
       <c r="C39">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8219,15 +7903,15 @@
         <v>SPL10</v>
       </c>
       <c r="C40">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E40" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8238,15 +7922,15 @@
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E41" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8256,15 +7940,15 @@
         <v>STD1</v>
       </c>
       <c r="C42">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E42" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8274,15 +7958,15 @@
         <v>SPL11</v>
       </c>
       <c r="C43">
+        <f t="shared" si="5"/>
+        <v>-4.9304437075635546E-2</v>
+      </c>
+      <c r="E43" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="30" t="e">
         <f t="shared" si="4"/>
-        <v>-4.9304437075635546E-2</v>
-      </c>
-      <c r="E43" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="30" t="e">
-        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8306,37 +7990,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C14:C43 D15:F15">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17 D20 D28">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F43">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I9">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O9">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I9">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8720,7 +8404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEA3D59-FCCE-5942-9377-6913AD088985}">
   <dimension ref="A2:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="139" workbookViewId="0">
+    <sheetView zoomScale="139" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -8914,7 +8598,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -8958,7 +8642,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="45"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="12">
         <v>0</v>
       </c>
@@ -8992,7 +8676,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="48" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -9036,7 +8720,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="45"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="12">
         <v>0</v>
       </c>
@@ -9070,7 +8754,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="48" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -9114,7 +8798,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="45"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -9132,7 +8816,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -9176,7 +8860,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="45"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -9200,7 +8884,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="48" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -9244,7 +8928,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="45"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -9268,7 +8952,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="48" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -9312,7 +8996,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="45"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -9330,7 +9014,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="48" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -9374,7 +9058,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="45"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="12">
         <v>0</v>
       </c>
@@ -9408,7 +9092,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="48" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -9452,7 +9136,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B43" s="45"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="12">
         <v>0</v>
       </c>
@@ -9547,7 +9231,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="15">
@@ -9591,7 +9275,7 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B51" s="44"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="20">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -9633,7 +9317,7 @@
       </c>
     </row>
     <row r="52" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B52" s="44"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="21">
         <v>1.6E-2</v>
       </c>
@@ -9675,7 +9359,7 @@
       </c>
     </row>
     <row r="53" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B53" s="45"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="26">
         <v>1.4E-2</v>
       </c>
@@ -9717,7 +9401,7 @@
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="48" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="15">
@@ -9761,7 +9445,7 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B55" s="44"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="20">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -9803,7 +9487,7 @@
       </c>
     </row>
     <row r="56" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B56" s="44"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="21">
         <v>1.6E-2</v>
       </c>
@@ -9845,7 +9529,7 @@
       </c>
     </row>
     <row r="57" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B57" s="45"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="26">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -9887,7 +9571,7 @@
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="48" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="15">
@@ -9931,7 +9615,7 @@
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B59" s="44"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="20">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -9973,7 +9657,7 @@
       </c>
     </row>
     <row r="60" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B60" s="44"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="21">
         <v>0</v>
       </c>
@@ -10015,7 +9699,7 @@
       </c>
     </row>
     <row r="61" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B61" s="45"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="26">
         <v>0</v>
       </c>
@@ -10057,7 +9741,7 @@
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C62" s="15">
@@ -10101,7 +9785,7 @@
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B63" s="44"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="20">
         <v>6.2E-2</v>
       </c>
@@ -10143,7 +9827,7 @@
       </c>
     </row>
     <row r="64" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B64" s="44"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="21">
         <v>-2E-3</v>
       </c>
@@ -10185,7 +9869,7 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B65" s="45"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="26">
         <v>-2E-3</v>
       </c>
@@ -10227,7 +9911,7 @@
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="48" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="15">
@@ -10271,7 +9955,7 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B67" s="44"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="20">
         <v>6.9000000000000006E-2</v>
       </c>
@@ -10313,7 +9997,7 @@
       </c>
     </row>
     <row r="68" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B68" s="44"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -10355,7 +10039,7 @@
       </c>
     </row>
     <row r="69" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B69" s="45"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -10397,7 +10081,7 @@
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="48" t="s">
         <v>74</v>
       </c>
       <c r="C70" s="15">
@@ -10441,7 +10125,7 @@
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B71" s="44"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="20">
         <v>9.4E-2</v>
       </c>
@@ -10483,7 +10167,7 @@
       </c>
     </row>
     <row r="72" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B72" s="44"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="21">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -10525,7 +10209,7 @@
       </c>
     </row>
     <row r="73" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B73" s="45"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="26">
         <v>0.03</v>
       </c>
@@ -10567,7 +10251,7 @@
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="48" t="s">
         <v>76</v>
       </c>
       <c r="C74" s="15">
@@ -10611,7 +10295,7 @@
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B75" s="44"/>
+      <c r="B75" s="49"/>
       <c r="C75" s="20">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -10653,7 +10337,7 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B76" s="44"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -10695,7 +10379,7 @@
       </c>
     </row>
     <row r="77" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B77" s="45"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="26">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -10737,7 +10421,7 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="48" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="15">
@@ -10781,7 +10465,7 @@
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B79" s="44"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="20">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -10823,7 +10507,7 @@
       </c>
     </row>
     <row r="80" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B80" s="44"/>
+      <c r="B80" s="49"/>
       <c r="C80" s="21">
         <v>1.9E-2</v>
       </c>
@@ -10865,7 +10549,7 @@
       </c>
     </row>
     <row r="81" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B81" s="45"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="26">
         <v>1.7999999999999999E-2</v>
       </c>
